--- a/HRMS_Microservice-Architecture.xlsx
+++ b/HRMS_Microservice-Architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zProfessional_Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zProfessional_Projects\ms-architecture-and-components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE21166-4834-4D8E-886F-9117941030D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEF458-FDAD-485B-8869-5052B03040E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro Level" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MS Tools Details" sheetId="4" r:id="rId3"/>
     <sheet name="ELK Arch" sheetId="5" r:id="rId4"/>
     <sheet name="Web MS Arch" sheetId="6" r:id="rId5"/>
-    <sheet name="MS Tx Pattern" sheetId="8" r:id="rId6"/>
+    <sheet name="MS Txn Pattern" sheetId="8" r:id="rId6"/>
     <sheet name="Docker Study" sheetId="7" r:id="rId7"/>
     <sheet name="Log Tools Study Links" sheetId="3" r:id="rId8"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Modules</t>
   </si>
@@ -55,9 +55,6 @@
     <t>6. SelfService</t>
   </si>
   <si>
-    <t>onTour, shortLeave, Leave, offDayBill</t>
-  </si>
-  <si>
     <t>HRIS- Employee Master Info</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zipkin </t>
-  </si>
-  <si>
-    <t>Histrix</t>
   </si>
   <si>
     <t>Links</t>
@@ -209,9 +203,6 @@
     <t>Used as Circute breaker / handle fallback</t>
   </si>
   <si>
-    <t>Design Patter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saga </t>
   </si>
   <si>
@@ -303,13 +294,32 @@
   </si>
   <si>
     <t>SDLC</t>
+  </si>
+  <si>
+    <t>Netflix Hystrix</t>
+  </si>
+  <si>
+    <t>On-Tour, Short Leave, Leave, Off Day Bill Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Config --&gt; Calender and Shift </t>
+  </si>
+  <si>
+    <t>Circuit 
+Breaker</t>
+  </si>
+  <si>
+    <t>Transaction Management in Microservice Architecture</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +346,21 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -500,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -534,14 +559,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1084,8 @@
       <xdr:rowOff>17144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1095,8 +1128,8 @@
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>454344</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>187644</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>116111</xdr:rowOff>
     </xdr:to>
@@ -1134,13 +1167,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>136205</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>307655</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>708561</xdr:rowOff>
     </xdr:to>
@@ -1165,8 +1198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10711815" y="1695450"/>
-          <a:ext cx="7626665" cy="756186"/>
+          <a:off x="10031730" y="1512570"/>
+          <a:ext cx="7620950" cy="748566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1177,16 +1210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>379095</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1283970</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>60008</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>250508</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3714</xdr:rowOff>
+      <xdr:rowOff>1809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1209,8 +1242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10647045" y="2626995"/>
-          <a:ext cx="7615238" cy="754284"/>
+          <a:off x="9999345" y="2440305"/>
+          <a:ext cx="7605713" cy="754284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,10 +1260,10 @@
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>513392</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250502</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>17019</xdr:rowOff>
+      <xdr:rowOff>20829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1266,15 +1299,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>5715</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>132396</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3683</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>324801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>975233</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1297,8 +1330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10706100" y="541020"/>
-          <a:ext cx="7622856" cy="1011428"/>
+          <a:off x="10035540" y="329565"/>
+          <a:ext cx="7622856" cy="1017143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,16 +1342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1297305</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>324803</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>288608</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>779049</xdr:rowOff>
+      <xdr:rowOff>784764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,8 +1374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10993755" y="3554730"/>
-          <a:ext cx="7617143" cy="777144"/>
+          <a:off x="10012680" y="3377565"/>
+          <a:ext cx="7626668" cy="788574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,16 +1386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>39053</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>305753</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1806</xdr:rowOff>
+      <xdr:rowOff>13236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1385,8 +1418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10708005" y="6212205"/>
-          <a:ext cx="7628573" cy="790476"/>
+          <a:off x="10020300" y="6040755"/>
+          <a:ext cx="7630478" cy="790476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,14 +1430,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>36195</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1293495</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>326709</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>269559</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>22758</xdr:rowOff>
     </xdr:to>
@@ -1429,8 +1462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11018520" y="4383405"/>
-          <a:ext cx="7615239" cy="807618"/>
+          <a:off x="10008870" y="4215765"/>
+          <a:ext cx="7605714" cy="798093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,10 +1480,10 @@
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>431484</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168594</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>58930</xdr:rowOff>
+      <xdr:rowOff>55120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1584,15 +1617,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>12347</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>153875</xdr:rowOff>
+      <xdr:colOff>27587</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1615,8 +1648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="3086100"/>
-          <a:ext cx="7908572" cy="3401900"/>
+          <a:off x="1263015" y="733425"/>
+          <a:ext cx="7908572" cy="3436190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,7 +1927,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,12 +1944,12 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
@@ -1927,22 +1960,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
       <c r="L4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
@@ -1953,12 +1986,12 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -1973,7 +2006,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2019,13 +2052,13 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2041,12 +2074,12 @@
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
       <c r="P12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
@@ -2059,7 +2092,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2071,13 +2104,13 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2096,7 +2129,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
@@ -2115,7 +2148,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2149,7 +2182,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -2158,7 +2191,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2180,7 +2213,7 @@
       <c r="B22" s="14"/>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
@@ -2197,7 +2230,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2282,16 +2315,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80096996-98D7-4360-BE99-E9CC6F38B3B4}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2304,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2332,7 +2365,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2344,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40637708-2B42-412F-8D81-C6544A71098C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,57 +2392,58 @@
     <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="24" t="s">
-        <v>22</v>
+      <c r="E3" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -2415,28 +2454,28 @@
     <row r="7" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -2444,19 +2483,19 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="J9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -2464,21 +2503,23 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="B12" s="19" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="24" t="s">
-        <v>86</v>
+      <c r="E12" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -2486,16 +2527,20 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+    </row>
     <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
       <c r="B14" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="24" t="s">
-        <v>87</v>
+      <c r="E14" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -2505,19 +2550,20 @@
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
+      <c r="D16" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="J9:L10"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2529,15 +2575,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC37CA48-3374-4035-BB82-94CFDB588F2E}">
   <dimension ref="C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2548,17 +2594,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E407D17-DBAB-49B6-A5FE-38D3C42CE712}">
-  <dimension ref="C16"/>
+  <dimension ref="C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>88</v>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2569,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F07B5F9-FD28-47BE-8C18-265BAF352A96}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2580,57 +2626,68 @@
     <col min="2" max="2" width="143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2644,39 +2701,39 @@
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2688,92 +2745,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E7E4E-CB1F-434E-8EE0-88AE064057AB}">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C6" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C17" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C21" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/HRMS_Microservice-Architecture.xlsx
+++ b/HRMS_Microservice-Architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zProfessional_Projects\ms-architecture-and-components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEF458-FDAD-485B-8869-5052B03040E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469234A3-6E21-4498-B517-BEC85DA79365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro Level" sheetId="1" r:id="rId1"/>
@@ -561,6 +561,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,13 +570,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2404,12 +2404,12 @@
         <v>29</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
@@ -2483,11 +2483,11 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
@@ -2503,12 +2503,12 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -2528,10 +2528,10 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
@@ -2596,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E407D17-DBAB-49B6-A5FE-38D3C42CE712}">
   <dimension ref="C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2627,7 +2627,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E7E4E-CB1F-434E-8EE0-88AE064057AB}">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2789,7 +2789,7 @@
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="24" t="s">
         <v>38</v>
       </c>
     </row>

--- a/HRMS_Microservice-Architecture.xlsx
+++ b/HRMS_Microservice-Architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zProfessional_Projects\ms-architecture-and-components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469234A3-6E21-4498-B517-BEC85DA79365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECDC1A4-B117-4DAC-9BE5-9A71EF291B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro Level" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="ELK Arch" sheetId="5" r:id="rId4"/>
     <sheet name="Web MS Arch" sheetId="6" r:id="rId5"/>
     <sheet name="MS Txn Pattern" sheetId="8" r:id="rId6"/>
-    <sheet name="Docker Study" sheetId="7" r:id="rId7"/>
-    <sheet name="Log Tools Study Links" sheetId="3" r:id="rId8"/>
+    <sheet name="Common QA" sheetId="9" r:id="rId7"/>
+    <sheet name="Docker Study" sheetId="7" r:id="rId8"/>
+    <sheet name="Log Tools Study Links" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>Modules</t>
   </si>
@@ -79,9 +80,6 @@
     <t>iRecruitment Service</t>
   </si>
   <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>Config Server</t>
   </si>
   <si>
@@ -101,9 +99,6 @@
   </si>
   <si>
     <t>Current Ternds</t>
-  </si>
-  <si>
-    <t>Spring Cloud Gateway</t>
   </si>
   <si>
     <t>Resilence 4j</t>
@@ -215,9 +210,6 @@
     <t>Spring Cloud Config</t>
   </si>
   <si>
-    <t>Elasticsearch is no SQL database</t>
-  </si>
-  <si>
     <t>https://www.javainuse.com/spring/springboot-microservice-elk</t>
   </si>
   <si>
@@ -284,9 +276,6 @@
     <t>https://dzone.com/articles/practical-transaction-handling-in-microservice-arc</t>
   </si>
   <si>
-    <t>Circuit beaker</t>
-  </si>
-  <si>
     <t>Not default</t>
   </si>
   <si>
@@ -299,27 +288,207 @@
     <t>Netflix Hystrix</t>
   </si>
   <si>
-    <t>On-Tour, Short Leave, Leave, Off Day Bill Processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Config --&gt; Calender and Shift </t>
-  </si>
-  <si>
-    <t>Circuit 
-Breaker</t>
-  </si>
-  <si>
     <t>Transaction Management in Microservice Architecture</t>
   </si>
   <si>
     <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>How to Handle fault talerance in micro service???</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Earlir</t>
+  </si>
+  <si>
+    <t>Hystrix</t>
+  </si>
+  <si>
+    <t>How to do distributed tracking in microservices???</t>
+  </si>
+  <si>
+    <t>Why we use Zull Gateway in Microservices??</t>
+  </si>
+  <si>
+    <t>Authentication and Security</t>
+  </si>
+  <si>
+    <t>insigght and monitoring</t>
+  </si>
+  <si>
+    <t>dynamic routing</t>
+  </si>
+  <si>
+    <t>Load balancing</t>
+  </si>
+  <si>
+    <t>What is the entry point of microservices???</t>
+  </si>
+  <si>
+    <t>what Design patter used in mircoservice ??</t>
+  </si>
+  <si>
+    <t>Domian driven?? Event Driven ?? Saga ?? CQRS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sZCprZNqNTw</t>
+  </si>
+  <si>
+    <t>Event Sourcing ???</t>
+  </si>
+  <si>
+    <t>How to handle microservice scalling???</t>
+  </si>
+  <si>
+    <t>Deaploy customer microservice in multiple instance??</t>
+  </si>
+  <si>
+    <t>suppor custmer microservice has more load</t>
+  </si>
+  <si>
+    <t>What is the default message size Kafka accept???</t>
+  </si>
+  <si>
+    <t>Kafka configuration limits the size of messages that it's allowed to send. By default, this limit is 1MB</t>
+  </si>
+  <si>
+    <t>Replication factor in Kafka??</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G0waumbpK48&amp;t=233s</t>
+  </si>
+  <si>
+    <t>Best Prictise in Microservices??</t>
+  </si>
+  <si>
+    <t>1. Individual DB</t>
+  </si>
+  <si>
+    <t>2. Indepdendent deployment</t>
+  </si>
+  <si>
+    <t>3. Indepentdent Build</t>
+  </si>
+  <si>
+    <t>4. Docerization</t>
+  </si>
+  <si>
+    <t>Experience in Micro-services (event driven microservices and spring boot)</t>
+  </si>
+  <si>
+    <t>What I learned from using Event Driven Architecture and DDD</t>
+  </si>
+  <si>
+    <t>what is the difference between event driven and domain driven design Microservices?</t>
+  </si>
+  <si>
+    <t>Event sourcing and domain events can of course be used both at the same time, but should not influence each other. The two concepts are used for different purposes and should therefore not be mixed.</t>
+  </si>
+  <si>
+    <t>In general, DDD is a methodology for creating complex software from a technical perspective. DDD gives us a bunch of building blocks for correct implementation of domain business logic. It handles the project also from a business perspective (strategic domain driven design). This approach puts stress on connecting these two worlds through some particular rules:</t>
+  </si>
+  <si>
+    <t>https://medium.com/briisk/what-i-learned-from-using-event-driven-architecture-and-ddd-ab154eeba489</t>
+  </si>
+  <si>
+    <t>Domain-Driven Design and Event-Driven Architecture</t>
+  </si>
+  <si>
+    <t>Fallbak Controller / Fault Talerance</t>
+  </si>
+  <si>
+    <t>https://javatechonline.com/how-to-implement-fault-tolerance-in-microservices-using-resilience4j/</t>
+  </si>
+  <si>
+    <t>https://medium.com/swlh/hystrix-fault-tolerance-and-circuit-breaker-for-spring-boot-38c744647acb</t>
+  </si>
+  <si>
+    <t>https://www.springboottutorial.com/fault-tolerance-in-microservices</t>
+  </si>
+  <si>
+    <t>https://www.classcentral.com/course/youtube-spring-boot-microservices-level-2-fault-tolerance-and-resilience-45738/classroom</t>
+  </si>
+  <si>
+    <t>Reports Service</t>
+  </si>
+  <si>
+    <t>Tracing</t>
+  </si>
+  <si>
+    <t>Fault Tolerance</t>
+  </si>
+  <si>
+    <t>Cental Log Management</t>
+  </si>
+  <si>
+    <t>H( Human ) R(Resouce) I(Information) S(System)</t>
+  </si>
+  <si>
+    <t>Device to collect punsh/finger print and Manage</t>
+  </si>
+  <si>
+    <t>Salary Processing</t>
+  </si>
+  <si>
+    <t>All kind of reports</t>
+  </si>
+  <si>
+    <t>On-Tour, Short Leave, Leave, Off Day Bill Processing, Transport Requisiotion, Gymnasium Requisition, Food Requistion</t>
+  </si>
+  <si>
+    <t>Master Config --&gt; Calender and Shift (A, B, C)</t>
+  </si>
+  <si>
+    <t>A=8 Hours (9:00 AM to 5:00PM)</t>
+  </si>
+  <si>
+    <t>B=8 Hours (5:00 PM to 1:00AM)</t>
+  </si>
+  <si>
+    <t>C=8 Hours (1:00 AM to 9:00AM)</t>
+  </si>
+  <si>
+    <t>Total 24 Hours</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>Eureka Server (For Service Discovery)</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>Sleuth and Zipkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#5
+</t>
+  </si>
+  <si>
+    <t>Circuit Breaker</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Elasticsearch is a no SQL database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +535,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +554,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -541,12 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,6 +752,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,6 +770,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,7 +1380,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>307655</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>708561</xdr:rowOff>
+      <xdr:rowOff>704751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1217,7 +1422,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>250508</xdr:colOff>
+      <xdr:colOff>246698</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1809</xdr:rowOff>
     </xdr:to>
@@ -1261,9 +1466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>250502</xdr:colOff>
+      <xdr:colOff>246692</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>20829</xdr:rowOff>
+      <xdr:rowOff>17019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1305,9 +1510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>324801</xdr:colOff>
+      <xdr:colOff>320991</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>975233</xdr:rowOff>
+      <xdr:rowOff>971423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>288608</xdr:colOff>
+      <xdr:colOff>284798</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>784764</xdr:rowOff>
+      <xdr:rowOff>780954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1395,7 +1600,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>305753</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>13236</xdr:rowOff>
+      <xdr:rowOff>17046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1439,7 +1644,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>269559</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>22758</xdr:rowOff>
+      <xdr:rowOff>18948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1481,9 +1686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>168594</xdr:colOff>
+      <xdr:colOff>172404</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>55120</xdr:rowOff>
+      <xdr:rowOff>58930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1616,16 +1821,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>550545</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>27587</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520982</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>146255</xdr:rowOff>
+      <xdr:rowOff>150065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1648,12 +1853,73 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1263015" y="733425"/>
-          <a:ext cx="7908572" cy="3436190"/>
+          <a:off x="550545" y="735330"/>
+          <a:ext cx="7897142" cy="3396185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74918C84-A555-E5A5-04CC-4165D5A293EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9124950" y="725805"/>
+          <a:ext cx="8648700" cy="5120640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1924,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,19 +2203,19 @@
     <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
@@ -1958,24 +2224,24 @@
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
       <c r="L4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
@@ -1984,14 +2250,14 @@
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -2004,9 +2270,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2019,7 +2285,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2031,7 +2297,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -2043,7 +2309,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2057,11 +2323,16 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
-      <c r="P11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="T11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2073,11 +2344,13 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
-      <c r="P12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
@@ -2091,11 +2364,16 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
-      <c r="P13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="T13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -2109,11 +2387,16 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="T14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -2126,7 +2409,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>8</v>
@@ -2213,7 +2496,7 @@
       <c r="B22" s="14"/>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
@@ -2230,7 +2513,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="11" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2315,62 +2598,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80096996-98D7-4360-BE99-E9CC6F38B3B4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="105.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2382,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40637708-2B42-412F-8D81-C6544A71098C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2398,172 +2712,194 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="7" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-    </row>
-    <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="D16" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="J9:L10"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2575,15 +2911,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC37CA48-3374-4035-BB82-94CFDB588F2E}">
   <dimension ref="C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2594,31 +2930,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E407D17-DBAB-49B6-A5FE-38D3C42CE712}">
-  <dimension ref="C2"/>
+  <dimension ref="B2:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>85</v>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F07B5F9-FD28-47BE-8C18-265BAF352A96}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2627,8 +2967,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="23" t="s">
-        <v>90</v>
+      <c r="B1" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2636,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2644,50 +2984,58 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2697,43 +3045,244 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CB8EB3-BA53-404E-9B5F-1F3B2EA60455}">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5847794-F934-4795-8D94-110DA2009783}">
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2741,12 +3290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E7E4E-CB1F-434E-8EE0-88AE064057AB}">
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,79 +3307,79 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C6" s="17" t="s">
-        <v>40</v>
+      <c r="C6" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C17" s="18" t="s">
-        <v>62</v>
+      <c r="C17" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C21" s="15" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C21" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/HRMS_Microservice-Architecture.xlsx
+++ b/HRMS_Microservice-Architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zProfessional_Projects\ms-architecture-and-components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECDC1A4-B117-4DAC-9BE5-9A71EF291B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5307B27-8528-4DA8-B6B2-3112DE2328E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro Level" sheetId="1" r:id="rId1"/>
@@ -759,6 +759,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,15 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,16 +1728,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>494248</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37524</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113248</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1760,8 +1760,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="548640"/>
-          <a:ext cx="8419048" cy="4609524"/>
+          <a:off x="228600" y="152400"/>
+          <a:ext cx="8419048" cy="4561899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,16 +1772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>40005</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>520462</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>46875</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>322342</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>136410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1804,8 +1804,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1259205" y="6054090"/>
-          <a:ext cx="12062857" cy="5937135"/>
+          <a:off x="4726305" y="5236845"/>
+          <a:ext cx="12055237" cy="5939040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,7 +1828,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>520982</xdr:colOff>
+      <xdr:colOff>513362</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>150065</xdr:rowOff>
     </xdr:to>
@@ -2193,7 +2193,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,11 +2323,11 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="T11" t="s">
         <v>125</v>
       </c>
@@ -2344,11 +2344,11 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
@@ -2364,11 +2364,11 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
       <c r="T13" t="s">
         <v>126</v>
       </c>
@@ -2387,11 +2387,11 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
       <c r="T14" t="s">
         <v>127</v>
       </c>
@@ -2601,7 +2601,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40637708-2B42-412F-8D81-C6544A71098C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2718,12 +2718,12 @@
         <v>27</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
@@ -2794,10 +2794,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -2809,15 +2809,15 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2829,18 +2829,18 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="17"/>
@@ -2854,14 +2854,14 @@
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="17"/>
@@ -2909,16 +2909,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC37CA48-3374-4035-BB82-94CFDB588F2E}">
-  <dimension ref="C31"/>
+  <dimension ref="B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2933,16 +2933,16 @@
   <dimension ref="B2:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="16" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3049,7 +3049,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,7 +3250,7 @@
   <dimension ref="B2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3294,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E7E4E-CB1F-434E-8EE0-88AE064057AB}">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/HRMS_Microservice-Architecture.xlsx
+++ b/HRMS_Microservice-Architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zProfessional_Projects\ms-architecture-and-components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5307B27-8528-4DA8-B6B2-3112DE2328E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC2375F-192A-4B33-B11C-B84D8B8DB3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro Level" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
   <si>
     <t>Modules</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>ELK</t>
-  </si>
-  <si>
-    <t>Saga Pattern</t>
   </si>
   <si>
     <t>ElasticSearch
@@ -246,9 +243,6 @@
     <t>Trace each request journey with TraceID and SpanID</t>
   </si>
   <si>
-    <t>CQRS</t>
-  </si>
-  <si>
     <t>Command and Query</t>
   </si>
   <si>
@@ -482,6 +476,18 @@
   </si>
   <si>
     <t>Elasticsearch is a no SQL database</t>
+  </si>
+  <si>
+    <t>CQRS Pattern</t>
+  </si>
+  <si>
+    <t>Saga Design Pattern</t>
+  </si>
+  <si>
+    <t>1. Choriography Based</t>
+  </si>
+  <si>
+    <t>2. Orchestration Based</t>
   </si>
 </sst>
 </file>
@@ -720,14 +726,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -762,9 +767,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2193,7 +2195,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,12 +2212,12 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
@@ -2226,38 +2228,36 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="J4" s="6"/>
       <c r="L4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -2272,322 +2272,176 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="P11" s="26" t="s">
+      <c r="M11" s="6"/>
+      <c r="P11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="T11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="D12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="P12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="P13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="T11" t="s">
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="T13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="J14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="P14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="T14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="P12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="P13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="T13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="P14" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="T14" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="11" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="J17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="12"/>
       <c r="D21" s="5"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="J23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2601,7 +2455,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2624,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2632,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2640,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2648,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2661,30 +2515,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2551,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,18 +2566,18 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
@@ -2734,164 +2588,164 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18" t="s">
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="B12" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2912,14 +2766,14 @@
   <dimension ref="B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2933,17 +2787,17 @@
   <dimension ref="B2:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>143</v>
+      <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2955,20 +2809,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F07B5F9-FD28-47BE-8C18-265BAF352A96}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="143" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="21" t="s">
-        <v>83</v>
+      <c r="B1" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2976,66 +2830,76 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>117</v>
+      <c r="B31" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3059,64 +2923,64 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J4" s="23" t="s">
-        <v>98</v>
+      <c r="J4" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3124,119 +2988,119 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
         <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F39" s="23" t="s">
-        <v>117</v>
+      <c r="F39" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>77</v>
+      <c r="A61" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3257,32 +3121,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3294,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E7E4E-CB1F-434E-8EE0-88AE064057AB}">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3307,16 +3171,16 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -3330,56 +3194,56 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C6" s="15" t="s">
-        <v>38</v>
+      <c r="C6" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C17" s="16" t="s">
-        <v>59</v>
+      <c r="C17" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C21" s="15" t="s">
-        <v>61</v>
+      <c r="C21" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/HRMS_Microservice-Architecture.xlsx
+++ b/HRMS_Microservice-Architecture.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zProfessional_Projects\ms-architecture-and-components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC2375F-192A-4B33-B11C-B84D8B8DB3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2AFA25-8343-4621-9A3E-367E9D8269F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro Level" sheetId="1" r:id="rId1"/>
     <sheet name="Details Level" sheetId="2" r:id="rId2"/>
-    <sheet name="MS Tools Details" sheetId="4" r:id="rId3"/>
-    <sheet name="ELK Arch" sheetId="5" r:id="rId4"/>
-    <sheet name="Web MS Arch" sheetId="6" r:id="rId5"/>
-    <sheet name="MS Txn Pattern" sheetId="8" r:id="rId6"/>
-    <sheet name="Common QA" sheetId="9" r:id="rId7"/>
-    <sheet name="Docker Study" sheetId="7" r:id="rId8"/>
-    <sheet name="Log Tools Study Links" sheetId="3" r:id="rId9"/>
+    <sheet name="Tracing Tools" sheetId="10" r:id="rId3"/>
+    <sheet name="MS Tools Details" sheetId="4" r:id="rId4"/>
+    <sheet name="ELK Arch" sheetId="5" r:id="rId5"/>
+    <sheet name="Web MS Arch" sheetId="6" r:id="rId6"/>
+    <sheet name="MS Txn Pattern" sheetId="8" r:id="rId7"/>
+    <sheet name="Common QA" sheetId="9" r:id="rId8"/>
+    <sheet name="Docker Study" sheetId="7" r:id="rId9"/>
+    <sheet name="Log Tools Study Links" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="174">
   <si>
     <t>Modules</t>
   </si>
@@ -414,9 +415,6 @@
     <t>Fault Tolerance</t>
   </si>
   <si>
-    <t>Cental Log Management</t>
-  </si>
-  <si>
     <t>H( Human ) R(Resouce) I(Information) S(System)</t>
   </si>
   <si>
@@ -484,17 +482,123 @@
     <t>Saga Design Pattern</t>
   </si>
   <si>
-    <t>1. Choriography Based</t>
-  </si>
-  <si>
-    <t>2. Orchestration Based</t>
+    <t>1. Choriography Based Saga</t>
+  </si>
+  <si>
+    <t>2. Orchestration Based Saga</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Two-Phase Commit (2PC)</t>
+  </si>
+  <si>
+    <t>- Single point of failure</t>
+  </si>
+  <si>
+    <t>- No single point of failure</t>
+  </si>
+  <si>
+    <t>Spring Boot 3</t>
+  </si>
+  <si>
+    <t>Spring Boot 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>micrometer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - using for distributed tracing instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sleuth</t>
+    </r>
+  </si>
+  <si>
+    <t>Sping Boot 2 Version</t>
+  </si>
+  <si>
+    <t>Spring Boot 3 Version</t>
+  </si>
+  <si>
+    <t>Sleuth + Zipkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleuth = </t>
+  </si>
+  <si>
+    <t>Zipkin =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micormeter = </t>
+  </si>
+  <si>
+    <t>Micrometer +xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx = </t>
+  </si>
+  <si>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t>prometheus</t>
+  </si>
+  <si>
+    <t>Centalize Log Management</t>
+  </si>
+  <si>
+    <t>Enterprise Tools</t>
+  </si>
+  <si>
+    <t>Zipkin</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>AppDynamics</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>In summary, AppDynamics focuses on real-time Application Performance Monitoring (APM), while Splunk specializes in log analytics and broader data analysis capabilities. AppDynamics provides detailed insights into application performance, while Splunk offers a wide range of use cases across industries. The licensing models of AppDynamics and Splunk are different, with AppDynamics based on application components monitored and Splunk based on data volume.</t>
+  </si>
+  <si>
+    <t>https://stackshare.io/stackups/appdynamics-vs-splunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +649,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,10 +843,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -764,12 +885,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,8 +905,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2192,30 +2318,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2226,7 +2352,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2239,7 +2365,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2250,12 +2376,12 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2270,86 +2396,97 @@
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D9" s="5"/>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P9" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="D11" s="5"/>
       <c r="J11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
       <c r="T11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="D12" s="5"/>
       <c r="M12" s="6"/>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="M13" s="6"/>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="T13" t="s">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="D14" s="5"/>
       <c r="J14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
       <c r="T14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>8</v>
@@ -2357,7 +2494,7 @@
       <c r="F16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="9"/>
@@ -2366,17 +2503,17 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
       <c r="D18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="D19" s="5"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
@@ -2385,15 +2522,21 @@
         <v>14</v>
       </c>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P20" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="D21" s="5"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="13"/>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -2402,7 +2545,7 @@
       <c r="G22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D23" s="5"/>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
@@ -2411,27 +2554,27 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D25" s="5"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D26" s="5"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D27" s="5"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D28" s="5"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -2450,27 +2593,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E7E4E-CB1F-434E-8EE0-88AE064057AB}">
+  <dimension ref="B1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="C6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="26" x14ac:dyDescent="0.6">
+      <c r="C21" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80096996-98D7-4360-BE99-E9CC6F38B3B4}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2478,67 +2719,67 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2547,24 +2788,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E362E91-C153-4983-8306-F80F39D1FCC3}">
+  <dimension ref="B2:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C42" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C42" r:id="rId1" xr:uid="{2E8F2D17-D3C7-4DAA-BC0E-E267B6E1F1B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40637708-2B42-412F-8D81-C6544A71098C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.90625" customWidth="1"/>
+    <col min="10" max="10" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2572,14 +2949,14 @@
         <v>26</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>20</v>
       </c>
@@ -2587,9 +2964,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="79.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>8</v>
@@ -2605,9 +2982,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>46</v>
@@ -2620,14 +2997,14 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>15</v>
@@ -2647,9 +3024,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>140</v>
+    <row r="9" spans="1:12" ht="63.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>39</v>
@@ -2663,14 +3040,14 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
       <c r="B10" s="16" t="s">
         <v>40</v>
       </c>
@@ -2683,18 +3060,18 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="12" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="16"/>
@@ -2707,15 +3084,15 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="28" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="16"/>
@@ -2729,9 +3106,9 @@
       </c>
       <c r="I14" s="16"/>
     </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>23</v>
@@ -2740,7 +3117,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -2761,17 +3138,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC37CA48-3374-4035-BB82-94CFDB588F2E}">
   <dimension ref="B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>56</v>
       </c>
@@ -2782,22 +3159,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E407D17-DBAB-49B6-A5FE-38D3C42CE712}">
   <dimension ref="B2:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2807,81 +3184,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F07B5F9-FD28-47BE-8C18-265BAF352A96}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="G4" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G5" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2889,12 +3278,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2908,7 +3297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CB8EB3-BA53-404E-9B5F-1F3B2EA60455}">
   <dimension ref="A1:J61"/>
   <sheetViews>
@@ -2916,12 +3305,12 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2932,22 +3321,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J4" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -2955,7 +3344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2963,22 +3352,22 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -2986,7 +3375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2994,12 +3383,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -3010,7 +3399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -3018,12 +3407,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -3031,32 +3420,32 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F39" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -3064,7 +3453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -3072,12 +3461,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -3085,17 +3474,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>75</v>
       </c>
@@ -3109,7 +3498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5847794-F934-4795-8D94-110DA2009783}">
   <dimension ref="B2:B17"/>
   <sheetViews>
@@ -3117,34 +3506,34 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -3152,102 +3541,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E7E4E-CB1F-434E-8EE0-88AE064057AB}">
-  <dimension ref="B1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C6" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C17" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C21" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>